--- a/biology/Botanique/Parc_de_l’Arbre-Sec/Parc_de_l’Arbre-Sec.xlsx
+++ b/biology/Botanique/Parc_de_l’Arbre-Sec/Parc_de_l’Arbre-Sec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_de_l%E2%80%99Arbre-Sec</t>
+          <t>Parc_de_l’Arbre-Sec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de l'Arbre Sec est un parc paysager situé à Auxerre sur les bords de l'Yonne. Il a été aménagé par Fernand Gauthier, architecte-voyer de la ville d'Auxerre. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_de_l%E2%80%99Arbre-Sec</t>
+          <t>Parc_de_l’Arbre-Sec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc a été créé en 1905  d'après les plans de l'architecte Fernand Gauthier[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc a été créé en 1905  d'après les plans de l'architecte Fernand Gauthier.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_de_l%E2%80%99Arbre-Sec</t>
+          <t>Parc_de_l’Arbre-Sec</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,18 +560,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nature et environnement
-Seule l'allée principale de ce parc est éclairée toutes les nuits, le reste du parc serait donc à éviter de nuit.
+          <t>Nature et environnement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seule l'allée principale de ce parc est éclairée toutes les nuits, le reste du parc serait donc à éviter de nuit.
 Le parc est très souvent exposé aux inondations, de par sa très forte proximité avec la rivière. 
-On dénombrait, en 2013, plus de 300 arbres de 52 variétés différentes et 7500 plantes[2].
+On dénombrait, en 2013, plus de 300 arbres de 52 variétés différentes et 7500 plantes.
 Le parc est situé tout près de l'Île aux Plaisirs, une petite île accessible par la Coulée Verte.
-Equipements
-Plusieurs équipements sont installés dans ce parc :
-Une aire de jeux pour enfants sécurisée, près de la rivière et du Stade Nautique.
-Des équipements de musculation gratuits et ouverts à tous ont été installés à la fin de l'année 2017 [3]
-Une promenade longe la rivière, permettant aux promeneurs de faire du vélo ou tout simplement de la marche.
-Festivités
-Le parc accueille tous les ans le Catalpa Festival. Plusieurs aménagement ont, par ailleurs, été effectués afin d'assurer son bon déroulement. Notamment la pose d'une dalle de béton sous la terre afin de stabiliser le sol en cas d’inondations[4]. En effet, plusieurs éditions de ce festival ont dû être annulées à la suite d'inondations.
 </t>
         </is>
       </c>
@@ -568,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_de_l%E2%80%99Arbre-Sec</t>
+          <t>Parc_de_l’Arbre-Sec</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,23 +595,179 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Le parc</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Equipements</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Plusieurs équipements sont installés dans ce parc :
+Une aire de jeux pour enfants sécurisée, près de la rivière et du Stade Nautique.
+Des équipements de musculation gratuits et ouverts à tous ont été installés à la fin de l'année 2017 
+Une promenade longe la rivière, permettant aux promeneurs de faire du vélo ou tout simplement de la marche.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parc_de_l’Arbre-Sec</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_de_l%E2%80%99Arbre-Sec</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Le parc</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Festivités</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc accueille tous les ans le Catalpa Festival. Plusieurs aménagement ont, par ailleurs, été effectués afin d'assurer son bon déroulement. Notamment la pose d'une dalle de béton sous la terre afin de stabiliser le sol en cas d’inondations. En effet, plusieurs éditions de ce festival ont dû être annulées à la suite d'inondations.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Parc_de_l’Arbre-Sec</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_de_l%E2%80%99Arbre-Sec</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Autour du parc</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Infrastructures à proximité
-Plusieurs grandes infrastructures sont situées à proximité de ce parc :
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Infrastructures à proximité</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Plusieurs grandes infrastructures sont situées à proximité de ce parc :
 Le stade Nautique
-Le Stade Abbé Deschamps
-Accès au parc
-Parking
-Plusieurs parking sont situés à proximité :
+Le Stade Abbé Deschamps</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Parc_de_l’Arbre-Sec</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_de_l%E2%80%99Arbre-Sec</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Autour du parc</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Accès au parc</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Parking</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Plusieurs parking sont situés à proximité :
 Parking de la Noue (au sud du parc)
 Parkings du Stade Nautique (au sud du parc)
-Place Achille Ribain (au nord du parc)
-Transports en commun
-Il est possible de venir au parc grâce au réseau de bus Léo via la ligne 4 (Arrêt "Arbre Sec"), ou les lignes 1 ou 7 sur le boulevard Vaulabelle (nécessite un peu de marche).
+Place Achille Ribain (au nord du parc)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Parc_de_l’Arbre-Sec</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_de_l%E2%80%99Arbre-Sec</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Autour du parc</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Accès au parc</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Transports en commun</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est possible de venir au parc grâce au réseau de bus Léo via la ligne 4 (Arrêt "Arbre Sec"), ou les lignes 1 ou 7 sur le boulevard Vaulabelle (nécessite un peu de marche).
 </t>
         </is>
       </c>
